--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.30746298003181</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H2">
-        <v>4.30746298003181</v>
+        <v>0.346655</v>
       </c>
       <c r="I2">
-        <v>0.4877631865972998</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J2">
-        <v>0.4877631865972998</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.66892154094224</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N2">
-        <v>7.66892154094224</v>
+        <v>27.492548</v>
       </c>
       <c r="O2">
-        <v>0.03427007228188779</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P2">
-        <v>0.03427007228188779</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q2">
-        <v>33.0335956343772</v>
+        <v>1.058936580771111</v>
       </c>
       <c r="R2">
-        <v>33.0335956343772</v>
+        <v>9.530429226939999</v>
       </c>
       <c r="S2">
-        <v>0.01671567966113338</v>
+        <v>0.0002791034018733947</v>
       </c>
       <c r="T2">
-        <v>0.01671567966113338</v>
+        <v>0.0003616156594959258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.30746298003181</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H3">
-        <v>4.30746298003181</v>
+        <v>0.346655</v>
       </c>
       <c r="I3">
-        <v>0.4877631865972998</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J3">
-        <v>0.4877631865972998</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.94191737041329</v>
+        <v>80.32428</v>
       </c>
       <c r="N3">
-        <v>74.94191737041329</v>
+        <v>240.97284</v>
       </c>
       <c r="O3">
-        <v>0.3348925805950776</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P3">
-        <v>0.3348925805950776</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q3">
-        <v>322.8095347256581</v>
+        <v>9.2816044278</v>
       </c>
       <c r="R3">
-        <v>322.8095347256581</v>
+        <v>83.53443985019999</v>
       </c>
       <c r="S3">
-        <v>0.1633482722788481</v>
+        <v>0.002446347985028279</v>
       </c>
       <c r="T3">
-        <v>0.1633482722788481</v>
+        <v>0.003169569894256662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.30746298003181</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H4">
-        <v>4.30746298003181</v>
+        <v>0.346655</v>
       </c>
       <c r="I4">
-        <v>0.4877631865972998</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J4">
-        <v>0.4877631865972998</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.146046409154184</v>
+        <v>0.118916</v>
       </c>
       <c r="N4">
-        <v>0.146046409154184</v>
+        <v>0.356748</v>
       </c>
       <c r="O4">
-        <v>0.0006526368761896478</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P4">
-        <v>0.0006526368761896478</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q4">
-        <v>0.6290895007982263</v>
+        <v>0.01374094199333333</v>
       </c>
       <c r="R4">
-        <v>0.6290895007982263</v>
+        <v>0.12366847794</v>
       </c>
       <c r="S4">
-        <v>0.00031833224242117</v>
+        <v>3.621693428034745E-06</v>
       </c>
       <c r="T4">
-        <v>0.00031833224242117</v>
+        <v>4.692386580314511E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.30746298003181</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H5">
-        <v>4.30746298003181</v>
+        <v>0.346655</v>
       </c>
       <c r="I5">
-        <v>0.4877631865972998</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J5">
-        <v>0.4877631865972998</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.022086543386</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N5">
-        <v>141.022086543386</v>
+        <v>0.441194</v>
       </c>
       <c r="O5">
-        <v>0.630184710246845</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P5">
-        <v>0.630184710246845</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q5">
-        <v>607.4474171524772</v>
+        <v>0.01699356734111111</v>
       </c>
       <c r="R5">
-        <v>607.4474171524772</v>
+        <v>0.15294210607</v>
       </c>
       <c r="S5">
-        <v>0.3073809024148971</v>
+        <v>4.478986316078469E-06</v>
       </c>
       <c r="T5">
-        <v>0.3073809024148971</v>
+        <v>5.803123787422159E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.19677421850268</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H6">
-        <v>3.19677421850268</v>
+        <v>0.346655</v>
       </c>
       <c r="I6">
-        <v>0.3619923808695031</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J6">
-        <v>0.3619923808695031</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.66892154094224</v>
+        <v>141.03759</v>
       </c>
       <c r="N6">
-        <v>7.66892154094224</v>
+        <v>282.07518</v>
       </c>
       <c r="O6">
-        <v>0.03427007228188779</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P6">
-        <v>0.03427007228188779</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q6">
-        <v>24.515810665804</v>
+        <v>16.29712858715</v>
       </c>
       <c r="R6">
-        <v>24.515810665804</v>
+        <v>97.78277152289999</v>
       </c>
       <c r="S6">
-        <v>0.01240550505789053</v>
+        <v>0.004295426290901636</v>
       </c>
       <c r="T6">
-        <v>0.01240550505789053</v>
+        <v>0.003710198205096596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.19677421850268</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H7">
-        <v>3.19677421850268</v>
+        <v>14.229332</v>
       </c>
       <c r="I7">
-        <v>0.3619923808695031</v>
+        <v>0.2885222098927089</v>
       </c>
       <c r="J7">
-        <v>0.3619923808695031</v>
+        <v>0.2976717420651799</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.94191737041329</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N7">
-        <v>74.94191737041329</v>
+        <v>27.492548</v>
       </c>
       <c r="O7">
-        <v>0.3348925805950776</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P7">
-        <v>0.3348925805950776</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q7">
-        <v>239.5723893348954</v>
+        <v>43.46673255754845</v>
       </c>
       <c r="R7">
-        <v>239.5723893348954</v>
+        <v>391.200593017936</v>
       </c>
       <c r="S7">
-        <v>0.1212285625851441</v>
+        <v>0.01145650565428439</v>
       </c>
       <c r="T7">
-        <v>0.1212285625851441</v>
+        <v>0.01484343014053304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.19677421850268</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H8">
-        <v>3.19677421850268</v>
+        <v>14.229332</v>
       </c>
       <c r="I8">
-        <v>0.3619923808695031</v>
+        <v>0.2885222098927089</v>
       </c>
       <c r="J8">
-        <v>0.3619923808695031</v>
+        <v>0.2976717420651799</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.146046409154184</v>
+        <v>80.32428</v>
       </c>
       <c r="N8">
-        <v>0.146046409154184</v>
+        <v>240.97284</v>
       </c>
       <c r="O8">
-        <v>0.0006526368761896478</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P8">
-        <v>0.0006526368761896478</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q8">
-        <v>0.4668773954889892</v>
+        <v>380.98694926032</v>
       </c>
       <c r="R8">
-        <v>0.4668773954889892</v>
+        <v>3428.88254334288</v>
       </c>
       <c r="S8">
-        <v>0.0002362495766551258</v>
+        <v>0.1004165457486504</v>
       </c>
       <c r="T8">
-        <v>0.0002362495766551258</v>
+        <v>0.130103019782155</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.19677421850268</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H9">
-        <v>3.19677421850268</v>
+        <v>14.229332</v>
       </c>
       <c r="I9">
-        <v>0.3619923808695031</v>
+        <v>0.2885222098927089</v>
       </c>
       <c r="J9">
-        <v>0.3619923808695031</v>
+        <v>0.2976717420651799</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>141.022086543386</v>
+        <v>0.118916</v>
       </c>
       <c r="N9">
-        <v>141.022086543386</v>
+        <v>0.356748</v>
       </c>
       <c r="O9">
-        <v>0.630184710246845</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P9">
-        <v>0.630184710246845</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q9">
-        <v>450.8157705013501</v>
+        <v>0.5640317480373332</v>
       </c>
       <c r="R9">
-        <v>450.8157705013501</v>
+        <v>5.076285732335999</v>
       </c>
       <c r="S9">
-        <v>0.2281220636498134</v>
+        <v>0.0001486615747348935</v>
       </c>
       <c r="T9">
-        <v>0.2281220636498134</v>
+        <v>0.0001926108855306857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3268166784119</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H10">
-        <v>1.3268166784119</v>
+        <v>14.229332</v>
       </c>
       <c r="I10">
-        <v>0.150244432533197</v>
+        <v>0.2885222098927089</v>
       </c>
       <c r="J10">
-        <v>0.150244432533197</v>
+        <v>0.2976717420651799</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.66892154094224</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N10">
-        <v>7.66892154094224</v>
+        <v>0.441194</v>
       </c>
       <c r="O10">
-        <v>0.03427007228188779</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P10">
-        <v>0.03427007228188779</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q10">
-        <v>10.17525300595445</v>
+        <v>0.6975439891564443</v>
       </c>
       <c r="R10">
-        <v>10.17525300595445</v>
+        <v>6.277895902407999</v>
       </c>
       <c r="S10">
-        <v>0.005148887562863876</v>
+        <v>0.0001838513314821291</v>
       </c>
       <c r="T10">
-        <v>0.005148887562863876</v>
+        <v>0.0002382039059247013</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.3268166784119</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H11">
-        <v>1.3268166784119</v>
+        <v>14.229332</v>
       </c>
       <c r="I11">
-        <v>0.150244432533197</v>
+        <v>0.2885222098927089</v>
       </c>
       <c r="J11">
-        <v>0.150244432533197</v>
+        <v>0.2976717420651799</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.94191737041329</v>
+        <v>141.03759</v>
       </c>
       <c r="N11">
-        <v>74.94191737041329</v>
+        <v>282.07518</v>
       </c>
       <c r="O11">
-        <v>0.3348925805950776</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P11">
-        <v>0.3348925805950776</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q11">
-        <v>99.43418587923084</v>
+        <v>668.95689752996</v>
       </c>
       <c r="R11">
-        <v>99.43418587923084</v>
+        <v>4013.74138517976</v>
       </c>
       <c r="S11">
-        <v>0.05031574573108538</v>
+        <v>0.176316645583557</v>
       </c>
       <c r="T11">
-        <v>0.05031574573108538</v>
+        <v>0.1522944773510365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.3268166784119</v>
+        <v>5.572895666666667</v>
       </c>
       <c r="H12">
-        <v>1.3268166784119</v>
+        <v>16.718687</v>
       </c>
       <c r="I12">
-        <v>0.150244432533197</v>
+        <v>0.338997819415873</v>
       </c>
       <c r="J12">
-        <v>0.150244432533197</v>
+        <v>0.3497480193963059</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.146046409154184</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N12">
-        <v>0.146046409154184</v>
+        <v>27.492548</v>
       </c>
       <c r="O12">
-        <v>0.0006526368761896478</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P12">
-        <v>0.0006526368761896478</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q12">
-        <v>0.1937768114879397</v>
+        <v>51.07103387160845</v>
       </c>
       <c r="R12">
-        <v>0.1937768114879397</v>
+        <v>459.639304844476</v>
       </c>
       <c r="S12">
-        <v>9.805505711335199E-05</v>
+        <v>0.01346076766974802</v>
       </c>
       <c r="T12">
-        <v>9.805505711335199E-05</v>
+        <v>0.01744021873450826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H13">
+        <v>16.718687</v>
+      </c>
+      <c r="I13">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J13">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>80.32428</v>
+      </c>
+      <c r="N13">
+        <v>240.97284</v>
+      </c>
+      <c r="O13">
+        <v>0.3480374900289019</v>
+      </c>
+      <c r="P13">
+        <v>0.437068761984357</v>
+      </c>
+      <c r="Q13">
+        <v>447.63883194012</v>
+      </c>
+      <c r="R13">
+        <v>4028.74948746108</v>
+      </c>
+      <c r="S13">
+        <v>0.1179839501947714</v>
+      </c>
+      <c r="T13">
+        <v>0.1528639338440243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H14">
+        <v>16.718687</v>
+      </c>
+      <c r="I14">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J14">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.118916</v>
+      </c>
+      <c r="N14">
+        <v>0.356748</v>
+      </c>
+      <c r="O14">
+        <v>0.0005152517540683451</v>
+      </c>
+      <c r="P14">
+        <v>0.0006470580116016202</v>
+      </c>
+      <c r="Q14">
+        <v>0.6627064610973332</v>
+      </c>
+      <c r="R14">
+        <v>5.964358149875999</v>
+      </c>
+      <c r="S14">
+        <v>0.0001746692210793727</v>
+      </c>
+      <c r="T14">
+        <v>0.0002263072579921786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H15">
+        <v>16.718687</v>
+      </c>
+      <c r="I15">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J15">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1470646666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.441194</v>
+      </c>
+      <c r="O15">
+        <v>0.0006372172580769324</v>
+      </c>
+      <c r="P15">
+        <v>0.0008002234416746982</v>
+      </c>
+      <c r="Q15">
+        <v>0.8195760435864443</v>
+      </c>
+      <c r="R15">
+        <v>7.376184392277999</v>
+      </c>
+      <c r="S15">
+        <v>0.0002160152609822417</v>
+      </c>
+      <c r="T15">
+        <v>0.000279876563800221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H16">
+        <v>16.718687</v>
+      </c>
+      <c r="I16">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J16">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>141.03759</v>
+      </c>
+      <c r="N16">
+        <v>282.07518</v>
+      </c>
+      <c r="O16">
+        <v>0.6111025062823514</v>
+      </c>
+      <c r="P16">
+        <v>0.5116188600720092</v>
+      </c>
+      <c r="Q16">
+        <v>785.98777414811</v>
+      </c>
+      <c r="R16">
+        <v>4715.926644888659</v>
+      </c>
+      <c r="S16">
+        <v>0.207162417069292</v>
+      </c>
+      <c r="T16">
+        <v>0.178937682995981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H17">
+        <v>13.475646</v>
+      </c>
+      <c r="I17">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J17">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.164182666666667</v>
+      </c>
+      <c r="N17">
+        <v>27.492548</v>
+      </c>
+      <c r="O17">
+        <v>0.03970753467660135</v>
+      </c>
+      <c r="P17">
+        <v>0.04986509649035763</v>
+      </c>
+      <c r="Q17">
+        <v>41.164427165112</v>
+      </c>
+      <c r="R17">
+        <v>370.4798444860079</v>
+      </c>
+      <c r="S17">
+        <v>0.01084968813674</v>
+      </c>
+      <c r="T17">
+        <v>0.01405721716237653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H18">
+        <v>13.475646</v>
+      </c>
+      <c r="I18">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J18">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>80.32428</v>
+      </c>
+      <c r="N18">
+        <v>240.97284</v>
+      </c>
+      <c r="O18">
+        <v>0.3480374900289019</v>
+      </c>
+      <c r="P18">
+        <v>0.437068761984357</v>
+      </c>
+      <c r="Q18">
+        <v>360.80718749496</v>
+      </c>
+      <c r="R18">
+        <v>3247.26468745464</v>
+      </c>
+      <c r="S18">
+        <v>0.09509777571087791</v>
+      </c>
+      <c r="T18">
+        <v>0.1232118442464705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.3268166784119</v>
-      </c>
-      <c r="H13">
-        <v>1.3268166784119</v>
-      </c>
-      <c r="I13">
-        <v>0.150244432533197</v>
-      </c>
-      <c r="J13">
-        <v>0.150244432533197</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>141.022086543386</v>
-      </c>
-      <c r="N13">
-        <v>141.022086543386</v>
-      </c>
-      <c r="O13">
-        <v>0.630184710246845</v>
-      </c>
-      <c r="P13">
-        <v>0.630184710246845</v>
-      </c>
-      <c r="Q13">
-        <v>187.1104564502109</v>
-      </c>
-      <c r="R13">
-        <v>187.1104564502109</v>
-      </c>
-      <c r="S13">
-        <v>0.09468174418213442</v>
-      </c>
-      <c r="T13">
-        <v>0.09468174418213442</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H19">
+        <v>13.475646</v>
+      </c>
+      <c r="I19">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J19">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.118916</v>
+      </c>
+      <c r="N19">
+        <v>0.356748</v>
+      </c>
+      <c r="O19">
+        <v>0.0005152517540683451</v>
+      </c>
+      <c r="P19">
+        <v>0.0006470580116016202</v>
+      </c>
+      <c r="Q19">
+        <v>0.5341566399119998</v>
+      </c>
+      <c r="R19">
+        <v>4.807409759207999</v>
+      </c>
+      <c r="S19">
+        <v>0.0001407874069513571</v>
+      </c>
+      <c r="T19">
+        <v>0.0001824088516002046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H20">
+        <v>13.475646</v>
+      </c>
+      <c r="I20">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J20">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1470646666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.441194</v>
+      </c>
+      <c r="O20">
+        <v>0.0006372172580769324</v>
+      </c>
+      <c r="P20">
+        <v>0.0008002234416746982</v>
+      </c>
+      <c r="Q20">
+        <v>0.6605971290359999</v>
+      </c>
+      <c r="R20">
+        <v>5.945374161324</v>
+      </c>
+      <c r="S20">
+        <v>0.0001741132654492724</v>
+      </c>
+      <c r="T20">
+        <v>0.0002255869433687103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H21">
+        <v>13.475646</v>
+      </c>
+      <c r="I21">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J21">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>141.03759</v>
+      </c>
+      <c r="N21">
+        <v>282.07518</v>
+      </c>
+      <c r="O21">
+        <v>0.6111025062823514</v>
+      </c>
+      <c r="P21">
+        <v>0.5116188600720092</v>
+      </c>
+      <c r="Q21">
+        <v>633.5242118443799</v>
+      </c>
+      <c r="R21">
+        <v>3801.14527106628</v>
+      </c>
+      <c r="S21">
+        <v>0.1669776697733581</v>
+      </c>
+      <c r="T21">
+        <v>0.14422788536648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.515886</v>
+      </c>
+      <c r="H22">
+        <v>3.031772</v>
+      </c>
+      <c r="I22">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J22">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.164182666666667</v>
+      </c>
+      <c r="N22">
+        <v>27.492548</v>
+      </c>
+      <c r="O22">
+        <v>0.03970753467660135</v>
+      </c>
+      <c r="P22">
+        <v>0.04986509649035763</v>
+      </c>
+      <c r="Q22">
+        <v>13.89185620584267</v>
+      </c>
+      <c r="R22">
+        <v>83.351137235056</v>
+      </c>
+      <c r="S22">
+        <v>0.003661469813955542</v>
+      </c>
+      <c r="T22">
+        <v>0.003162614793443863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.515886</v>
+      </c>
+      <c r="H23">
+        <v>3.031772</v>
+      </c>
+      <c r="I23">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J23">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>80.32428</v>
+      </c>
+      <c r="N23">
+        <v>240.97284</v>
+      </c>
+      <c r="O23">
+        <v>0.3480374900289019</v>
+      </c>
+      <c r="P23">
+        <v>0.437068761984357</v>
+      </c>
+      <c r="Q23">
+        <v>121.76245151208</v>
+      </c>
+      <c r="R23">
+        <v>730.57470907248</v>
+      </c>
+      <c r="S23">
+        <v>0.03209287038957388</v>
+      </c>
+      <c r="T23">
+        <v>0.02772039421745053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.515886</v>
+      </c>
+      <c r="H24">
+        <v>3.031772</v>
+      </c>
+      <c r="I24">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J24">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.118916</v>
+      </c>
+      <c r="N24">
+        <v>0.356748</v>
+      </c>
+      <c r="O24">
+        <v>0.0005152517540683451</v>
+      </c>
+      <c r="P24">
+        <v>0.0006470580116016202</v>
+      </c>
+      <c r="Q24">
+        <v>0.180263099576</v>
+      </c>
+      <c r="R24">
+        <v>1.081578597456</v>
+      </c>
+      <c r="S24">
+        <v>4.751185787468703E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.103862989823683E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.515886</v>
+      </c>
+      <c r="H25">
+        <v>3.031772</v>
+      </c>
+      <c r="I25">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J25">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1470646666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.441194</v>
+      </c>
+      <c r="O25">
+        <v>0.0006372172580769324</v>
+      </c>
+      <c r="P25">
+        <v>0.0008002234416746982</v>
+      </c>
+      <c r="Q25">
+        <v>0.2229332692946666</v>
+      </c>
+      <c r="R25">
+        <v>1.337599615768</v>
+      </c>
+      <c r="S25">
+        <v>5.875841384721057E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.075290479364341E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.515886</v>
+      </c>
+      <c r="H26">
+        <v>3.031772</v>
+      </c>
+      <c r="I26">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J26">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>141.03759</v>
+      </c>
+      <c r="N26">
+        <v>282.07518</v>
+      </c>
+      <c r="O26">
+        <v>0.6111025062823514</v>
+      </c>
+      <c r="P26">
+        <v>0.5116188600720092</v>
+      </c>
+      <c r="Q26">
+        <v>213.79690815474</v>
+      </c>
+      <c r="R26">
+        <v>855.18763261896</v>
+      </c>
+      <c r="S26">
+        <v>0.05635034756524255</v>
+      </c>
+      <c r="T26">
+        <v>0.03244861615341512</v>
       </c>
     </row>
   </sheetData>
